--- a/Clase 5.xlsx
+++ b/Clase 5.xlsx
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B3010-9D3D-406E-B898-21792357EA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D1AE98-6DE5-4A2F-888C-6A2AEB1FF605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="2" xr2:uid="{EBD33A9A-2FD4-4CA0-957A-08ECE4EE31F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="4" xr2:uid="{EBD33A9A-2FD4-4CA0-957A-08ECE4EE31F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hotel Turistico" sheetId="1" r:id="rId1"/>
     <sheet name="Liquidación de Sueldos" sheetId="2" r:id="rId2"/>
     <sheet name="Fast Burguer" sheetId="3" r:id="rId3"/>
+    <sheet name="Estadisticas" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="agrandado">'Fast Burguer'!$C:$C</definedName>
+    <definedName name="combos">'Fast Burguer'!$A:$A</definedName>
+    <definedName name="total">'Fast Burguer'!$D:$D</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -144,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="89">
   <si>
     <t>Pasajeros</t>
   </si>
@@ -312,6 +319,105 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Combo 1</t>
+  </si>
+  <si>
+    <t>Combo 2</t>
+  </si>
+  <si>
+    <t>Combo 3</t>
+  </si>
+  <si>
+    <t>Combo 4</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>total $</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Total$</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Sucursal</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
   </si>
 </sst>
 </file>
@@ -321,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +454,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -408,6 +520,4027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="60"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fast Burguer'!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total $</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="41"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-DCEC-4D05-B0AF-C7C2C9E54A18}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="46"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DCEC-4D05-B0AF-C7C2C9E54A18}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="45"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DCEC-4D05-B0AF-C7C2C9E54A18}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="71"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DCEC-4D05-B0AF-C7C2C9E54A18}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Fast Burguer'!$G$12:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Combo 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combo 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Combo 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combo 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fast Burguer'!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCEC-4D05-B0AF-C7C2C9E54A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fast Burguer'!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total $</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Fast Burguer'!$G$12:$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Combo 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combo 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Combo 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combo 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fast Burguer'!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1771-442D-B584-7A52C265CEA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1168439983"/>
+        <c:axId val="1168435407"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1168439983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168435407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1168435407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1168439983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estadisticas!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Estadisticas!$B$9:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Combo 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combo 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Combo 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combo 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Estadisticas!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCA4-481B-94A4-5509AAEC1229}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1158156415"/>
+        <c:axId val="1158161823"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1158156415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1158161823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1158161823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1158156415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.0226700251889168E-2"/>
+          <c:y val="0.21043962229759436"/>
+          <c:w val="0.92611251049538201"/>
+          <c:h val="0.59736121187861202"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Estadisticas!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="27"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-93CC-48D2-BC01-0B34B6210CB1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-93CC-48D2-BC01-0B34B6210CB1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-93CC-48D2-BC01-0B34B6210CB1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-93CC-48D2-BC01-0B34B6210CB1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-93CC-48D2-BC01-0B34B6210CB1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-93CC-48D2-BC01-0B34B6210CB1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-93CC-48D2-BC01-0B34B6210CB1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-93CC-48D2-BC01-0B34B6210CB1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Estadisticas!$B$9:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Combo 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combo 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Combo 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Combo 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Estadisticas!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93CC-48D2-BC01-0B34B6210CB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87E3F31-4926-9224-A0DE-80727CB58563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749CC1D1-5728-90EA-BF78-E018E8209936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742951</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E293F62A-9864-2057-124F-CC81270E37D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FD08A0-3CE4-614C-C6EA-3CBB48A5E849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,211 +5617,1038 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E866F4A-BB69-482B-AFA1-A32B25A6C556}">
-  <dimension ref="A1:D14"/>
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>300</v>
+      </c>
+      <c r="E1" s="1">
+        <f>SUM(total)</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10">
+        <f>B3+IF(C3="si",$C$1,0)</f>
+        <v>1300</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D20" si="0">B4+IF(C4="si",$C$1,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF($A$3:$A$14,F4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H7" si="1">COUNTIF($A$3:$A$14,F5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF($A$3:$A$14,F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF(combos,F12)</f>
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <f>SUMIF(combos,F12,total)</f>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIF(combos,F13)</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <f>SUMIF(combos,F13,total)</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIF(combos,F14)</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUMIF(combos,F14,total)</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <f>COUNTIF(combos,F15)</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUMIF(combos,F15,total)</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="I16" s="10">
+        <f>SUM(I12:I15)</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <f>COUNTIF(agrandado,G20)</f>
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <f>SUMIF(agrandado,G20,total)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <f>COUNTIF(agrandado,G21)</f>
+        <v>8</v>
+      </c>
+      <c r="I21" s="1">
+        <f>SUMIF(agrandado,G21,total)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="10">
+        <f>SUM(I20:I21)</f>
+        <v>21000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="I12:I15">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBD4C0EF-42A3-48B5-BB82-D1ED8B4D8309}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D1D60756-4FDA-4643-9652-6F74B3C2415F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBD4C0EF-42A3-48B5-BB82-D1ED8B4D8309}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" direction="rightToLeft" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I12:I15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D1D60756-4FDA-4643-9652-6F74B3C2415F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" direction="rightToLeft" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I20:I21</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C606BE7-C935-41F1-B199-89ABA7E80245}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF('Fast Burguer'!$A$3:$A$14,Estadisticas!A2)</f>
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF('Fast Burguer'!$A$3:$A$14,Estadisticas!A3)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF('Fast Burguer'!$A$3:$A$14,Estadisticas!A4)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF('Fast Burguer'!$A$3:$A$14,Estadisticas!A5)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(combos,A9)</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUMIF(combos,A9,total)</f>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(combos,A10)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <f>SUMIF(combos,A10,total)</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(combos,A11)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <f>SUMIF(combos,A11,total)</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(combos,A12)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f>SUMIF(combos,A12,total)</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(agrandado,A17)</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUMIF(agrandado,A17,total)</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(agrandado,A18)</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <f>SUMIF(agrandado,A18,total)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="10">
+        <f>SUM(C17:C18)</f>
+        <v>21000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2DE006-802B-4A59-8039-83A618C0DF7F}">
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="1">
-        <v>300</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10">
-        <f>B3+IF(C3="si",$C$1,0)</f>
-        <v>1300</v>
+        <v>85</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5600</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1000</v>
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10">
-        <f t="shared" ref="D4:D14" si="0">B4+IF(C4="si",$C$1,0)</f>
-        <v>1000</v>
+        <v>85</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3500</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1000</v>
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>85</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>85</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8900</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1000</v>
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>85</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3600</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1000</v>
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>86</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1000</v>
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>86</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1000</v>
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>86</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3700</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1000</v>
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>86</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8800</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1000</v>
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>87</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6060</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1000</v>
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>87</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5050</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1000</v>
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>87</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5656</v>
       </c>
     </row>
   </sheetData>
